--- a/framework-app/src/test/resources/testcases/应用概览/testAppSearch.xlsx
+++ b/framework-app/src/test/resources/testcases/应用概览/testAppSearch.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="189">
   <si>
     <t>test_case_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -332,9 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-  </si>
-  <si>
     <t>createRandomStr</t>
   </si>
   <si>
@@ -953,12 +950,6 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>2018/11/02-15:23:51</t>
-  </si>
-  <si>
-    <t>2018/11/02-15:24:01</t>
-  </si>
-  <si>
     <t>//*[@id="app"]/div[4]/div[1]/div[1]/h1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -986,10 +977,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/11/02-16:31:03</t>
-  </si>
-  <si>
-    <t>2018/11/02-16:31:11</t>
+    <t>findAndInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/11/06-17:15:41</t>
+  </si>
+  <si>
+    <t>2018/11/06-17:15:44</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>2018/11/08-12:28:41</t>
+  </si>
+  <si>
+    <t>2018/11/08-12:28:49</t>
+  </si>
+  <si>
+    <t>2018/11/08-14:15:41</t>
+  </si>
+  <si>
+    <t>2018/11/08-14:15:48</t>
+  </si>
+  <si>
+    <t>2018/11/08-14:17:31</t>
+  </si>
+  <si>
+    <t>2018/11/08-14:17:39</t>
+  </si>
+  <si>
+    <t>2018/11/08-16:15:22</t>
+  </si>
+  <si>
+    <t>2018/11/08-16:15:28</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:50:50</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:50:51</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:52:12</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:52:13</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:56:32</t>
+  </si>
+  <si>
+    <t>2018/11/08-19:56:33</t>
+  </si>
+  <si>
+    <t>2018/11/09-10:36:17</t>
+  </si>
+  <si>
+    <t>2018/11/09-10:36:19</t>
   </si>
 </sst>
 </file>
@@ -3161,253 +3207,253 @@
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="2" s="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="16"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="16"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="16"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="16"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="16"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="16"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="16"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="16"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="16"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="16"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" s="16"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="16"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="16"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="16"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="16"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="16"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="16"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B30" s="67"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="25" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="61"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="16"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="16"/>
     </row>
@@ -3451,7 +3497,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>8</v>
@@ -3459,90 +3505,90 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="53"/>
       <c r="F2" s="70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="53"/>
       <c r="F4" s="72"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="53"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="53"/>
       <c r="F7" s="56"/>
@@ -3646,7 +3692,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -3655,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>10</v>
@@ -3672,21 +3718,21 @@
     </row>
     <row customHeight="1" ht="48.75" r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="54">
         <v>1</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="54"/>
       <c r="E2" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F2" s="54"/>
       <c r="G2" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="54"/>
       <c r="I2" s="54"/>
@@ -3722,57 +3768,57 @@
   <sheetData>
     <row customHeight="1" ht="33.75" r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row customHeight="1" ht="28.5" r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="58" t="s">
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E2" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="59"/>
       <c r="H2" s="30"/>
       <c r="I2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J2" s="30"/>
     </row>
@@ -3867,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -3876,10 +3922,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="39" t="s">
         <v>11</v>
@@ -3893,11 +3939,11 @@
     </row>
     <row customFormat="1" customHeight="1" ht="27" r="2" s="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
@@ -3906,96 +3952,96 @@
       <c r="H2" s="47"/>
       <c r="I2" s="44"/>
       <c r="J2" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row customHeight="1" ht="24" r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="7"/>
       <c r="H3" s="40"/>
       <c r="I3" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3" s="74"/>
     </row>
     <row customHeight="1" ht="24" r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J4" s="63" t="s">
         <v>139</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>140</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="2"/>
       <c r="H5" s="40"/>
       <c r="I5" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="2"/>
@@ -4005,121 +4051,121 @@
     </row>
     <row ht="27" r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row customHeight="1" ht="21.75" r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="40">
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="31"/>
     </row>
     <row customHeight="1" ht="21.75" r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="9">
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="31"/>
     </row>
     <row customHeight="1" ht="21.75" r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="9">
         <v>8</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" s="31"/>
     </row>
     <row ht="27" r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45"/>
@@ -4128,94 +4174,94 @@
       <c r="H11" s="47"/>
       <c r="I11" s="44"/>
       <c r="J11" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="9">
         <v>1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="7"/>
       <c r="H12" s="40"/>
       <c r="I12" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" s="74"/>
     </row>
     <row ht="27" r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" s="31"/>
     </row>
     <row ht="27" r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="9">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="2"/>
       <c r="H14" s="40"/>
       <c r="I14" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="9">
         <v>4</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="2"/>
@@ -4225,109 +4271,109 @@
     </row>
     <row ht="27" r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9">
         <v>5</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="31"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="9">
         <v>6</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H17" s="40">
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="31"/>
     </row>
     <row ht="27" r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="9">
         <v>7</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" s="31"/>
     </row>
     <row ht="27" r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="11">
         <v>8</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="40" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" s="31"/>
     </row>
@@ -4473,7 +4519,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -4482,7 +4528,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>10</v>
@@ -4499,11 +4545,11 @@
     </row>
     <row customHeight="1" ht="30" r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
@@ -4512,161 +4558,161 @@
       <c r="H2" s="47"/>
       <c r="I2" s="44"/>
       <c r="J2" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row customHeight="1" ht="27" r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="7"/>
       <c r="H3" s="40"/>
       <c r="I3" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" s="74"/>
     </row>
     <row customHeight="1" ht="26.25" r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row ht="27" r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="2"/>
       <c r="H5" s="40"/>
       <c r="I5" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="9">
         <v>4</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="2"/>
       <c r="H6" s="40"/>
       <c r="I6" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J6" s="31"/>
     </row>
     <row customHeight="1" ht="28.5" r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row ht="27" r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="11">
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="40">
         <v>2</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4737,8 +4783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4763,7 +4809,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -4772,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="32" t="s">
         <v>10</v>
@@ -4789,294 +4835,294 @@
     </row>
     <row customHeight="1" ht="39.75" r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="33" t="s">
-        <v>21</v>
+        <v>169</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="J2" s="66"/>
     </row>
     <row customHeight="1" ht="33" r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="2"/>
       <c r="H3" s="40"/>
       <c r="I3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="31"/>
     </row>
     <row customHeight="1" ht="39.75" r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="33" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="47"/>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="66"/>
     </row>
     <row customHeight="1" ht="33" r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="2"/>
       <c r="H5" s="40"/>
       <c r="I5" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="31"/>
     </row>
     <row customHeight="1" ht="30.75" r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H6" s="40"/>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="65"/>
     </row>
     <row customHeight="1" ht="39.75" r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="75"/>
     </row>
     <row customHeight="1" ht="30.75" r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="7"/>
       <c r="H8" s="40"/>
       <c r="I8" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="76"/>
     </row>
     <row customHeight="1" ht="30.75" r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="2"/>
       <c r="H10" s="40"/>
       <c r="I10" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" s="31"/>
     </row>
     <row customHeight="1" ht="33" r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="2"/>
       <c r="H11" s="40"/>
       <c r="I11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="31"/>
     </row>
     <row customHeight="1" ht="31.5" r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="31" t="s">
         <v>99</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>100</v>
       </c>
     </row>
     <row customHeight="1" ht="33" r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5291,60 +5337,60 @@
   <sheetData>
     <row ht="27" r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>111</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row ht="40.5" r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="57"/>
       <c r="I2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="57" t="s">
         <v>118</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
